--- a/Code/Results/Cases/Case_1_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9931135469906439</v>
+        <v>1.031961604145692</v>
       </c>
       <c r="D2">
-        <v>1.037108424745603</v>
+        <v>1.0471271194131</v>
       </c>
       <c r="E2">
-        <v>1.013531523793618</v>
+        <v>1.042092597640028</v>
       </c>
       <c r="F2">
-        <v>1.032053892996987</v>
+        <v>1.05457607304981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051029017544554</v>
+        <v>1.038034499349782</v>
       </c>
       <c r="J2">
-        <v>1.015502199894652</v>
+        <v>1.037094446692479</v>
       </c>
       <c r="K2">
-        <v>1.048073899084648</v>
+        <v>1.049890626704791</v>
       </c>
       <c r="L2">
-        <v>1.024805507673625</v>
+        <v>1.044870261453213</v>
       </c>
       <c r="M2">
-        <v>1.04308402244748</v>
+        <v>1.057318903419241</v>
       </c>
       <c r="N2">
-        <v>1.016944329498221</v>
+        <v>1.038567239763178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9979750665001231</v>
+        <v>1.033008031795953</v>
       </c>
       <c r="D3">
-        <v>1.039822072079876</v>
+        <v>1.047707496914087</v>
       </c>
       <c r="E3">
-        <v>1.017367851642553</v>
+        <v>1.042964260252193</v>
       </c>
       <c r="F3">
-        <v>1.035714055242533</v>
+        <v>1.055394349435427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051807457467766</v>
+        <v>1.038136331595909</v>
       </c>
       <c r="J3">
-        <v>1.018521085873134</v>
+        <v>1.037782476176681</v>
       </c>
       <c r="K3">
-        <v>1.049969567193515</v>
+        <v>1.050283386389069</v>
       </c>
       <c r="L3">
-        <v>1.027783227666926</v>
+        <v>1.04555252553825</v>
       </c>
       <c r="M3">
-        <v>1.045909484896967</v>
+        <v>1.057950437564892</v>
       </c>
       <c r="N3">
-        <v>1.019967502641076</v>
+        <v>1.039256246328165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001057479263757</v>
+        <v>1.033685856195599</v>
       </c>
       <c r="D4">
-        <v>1.04154444265528</v>
+        <v>1.048082961181144</v>
       </c>
       <c r="E4">
-        <v>1.019806101128435</v>
+        <v>1.043529096620848</v>
       </c>
       <c r="F4">
-        <v>1.038038936179102</v>
+        <v>1.055924257884599</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052290391849278</v>
+        <v>1.03820088217984</v>
       </c>
       <c r="J4">
-        <v>1.02043417324105</v>
+        <v>1.038227826991</v>
       </c>
       <c r="K4">
-        <v>1.051166042636518</v>
+        <v>1.05053674850247</v>
       </c>
       <c r="L4">
-        <v>1.029671219314598</v>
+        <v>1.045994168939714</v>
       </c>
       <c r="M4">
-        <v>1.047698958011807</v>
+        <v>1.058358858853843</v>
       </c>
       <c r="N4">
-        <v>1.021883306812488</v>
+        <v>1.039702229591723</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002338747946438</v>
+        <v>1.033970984441892</v>
       </c>
       <c r="D5">
-        <v>1.042260697015585</v>
+        <v>1.048240785732197</v>
       </c>
       <c r="E5">
-        <v>1.020820946208546</v>
+        <v>1.043766747102579</v>
       </c>
       <c r="F5">
-        <v>1.039006225548227</v>
+        <v>1.056147132493705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052488523443881</v>
+        <v>1.038227697396183</v>
       </c>
       <c r="J5">
-        <v>1.021229103421979</v>
+        <v>1.038415087576774</v>
       </c>
       <c r="K5">
-        <v>1.051661984065357</v>
+        <v>1.050643074007743</v>
       </c>
       <c r="L5">
-        <v>1.030455943236093</v>
+        <v>1.046179876258169</v>
       </c>
       <c r="M5">
-        <v>1.048442228097716</v>
+        <v>1.058530504347289</v>
       </c>
       <c r="N5">
-        <v>1.022679365885454</v>
+        <v>1.039889756109008</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002553040067277</v>
+        <v>1.034018868735092</v>
       </c>
       <c r="D6">
-        <v>1.042380505733564</v>
+        <v>1.048267283907772</v>
       </c>
       <c r="E6">
-        <v>1.020990755614136</v>
+        <v>1.043806660962574</v>
       </c>
       <c r="F6">
-        <v>1.039168055014944</v>
+        <v>1.056184560003542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052521505813387</v>
+        <v>1.038232180896816</v>
       </c>
       <c r="J6">
-        <v>1.021362037601128</v>
+        <v>1.038446531490071</v>
       </c>
       <c r="K6">
-        <v>1.051744845524504</v>
+        <v>1.0506609154707</v>
       </c>
       <c r="L6">
-        <v>1.030587183210821</v>
+        <v>1.046211059677071</v>
       </c>
       <c r="M6">
-        <v>1.048566504598766</v>
+        <v>1.058559321128579</v>
       </c>
       <c r="N6">
-        <v>1.022812488846385</v>
+        <v>1.039921244676269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001074656172392</v>
+        <v>1.033689665422372</v>
       </c>
       <c r="D7">
-        <v>1.041554043790184</v>
+        <v>1.048085070123803</v>
       </c>
       <c r="E7">
-        <v>1.019819701126188</v>
+        <v>1.04353227136031</v>
       </c>
       <c r="F7">
-        <v>1.038051900381704</v>
+        <v>1.055927235550791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052293058422608</v>
+        <v>1.038201241751532</v>
       </c>
       <c r="J7">
-        <v>1.020444831386697</v>
+        <v>1.038230329039108</v>
       </c>
       <c r="K7">
-        <v>1.051172696950784</v>
+        <v>1.050538169969111</v>
       </c>
       <c r="L7">
-        <v>1.029681739764021</v>
+        <v>1.045996650212331</v>
       </c>
       <c r="M7">
-        <v>1.047708924744539</v>
+        <v>1.058361152606361</v>
       </c>
       <c r="N7">
-        <v>1.021893980093924</v>
+        <v>1.039704735193027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9947699892345108</v>
+        <v>1.032315100780594</v>
       </c>
       <c r="D8">
-        <v>1.038032582512128</v>
+        <v>1.047323275959838</v>
       </c>
       <c r="E8">
-        <v>1.014837387968196</v>
+        <v>1.042387011165412</v>
       </c>
       <c r="F8">
-        <v>1.033300064665781</v>
+        <v>1.054852523623997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0512964434347</v>
+        <v>1.038069191451298</v>
       </c>
       <c r="J8">
-        <v>1.016530998448047</v>
+        <v>1.03732693802819</v>
       </c>
       <c r="K8">
-        <v>1.048720890832903</v>
+        <v>1.050023522348925</v>
       </c>
       <c r="L8">
-        <v>1.025820059259548</v>
+        <v>1.045100799411556</v>
       </c>
       <c r="M8">
-        <v>1.044047094358362</v>
+        <v>1.05753237884186</v>
       </c>
       <c r="N8">
-        <v>1.017974589063578</v>
+        <v>1.038800061263253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9831477477296631</v>
+        <v>1.029898445132247</v>
       </c>
       <c r="D9">
-        <v>1.031560982146603</v>
+        <v>1.045980371747345</v>
       </c>
       <c r="E9">
-        <v>1.005702713935432</v>
+        <v>1.040375191624094</v>
       </c>
       <c r="F9">
-        <v>1.024578428198929</v>
+        <v>1.05296209877839</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049377498723738</v>
+        <v>1.037826254735398</v>
       </c>
       <c r="J9">
-        <v>1.009309966784359</v>
+        <v>1.035736227149875</v>
       </c>
       <c r="K9">
-        <v>1.044161947418923</v>
+        <v>1.049110732337714</v>
       </c>
       <c r="L9">
-        <v>1.018703941229574</v>
+        <v>1.043523562710194</v>
       </c>
       <c r="M9">
-        <v>1.037284937835584</v>
+        <v>1.056070319028603</v>
       </c>
       <c r="N9">
-        <v>1.010743302706664</v>
+        <v>1.037207091393034</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9750135309467122</v>
+        <v>1.028291067852707</v>
       </c>
       <c r="D10">
-        <v>1.027053499288266</v>
+        <v>1.045084853661239</v>
       </c>
       <c r="E10">
-        <v>0.9993482798961458</v>
+        <v>1.03903826887816</v>
       </c>
       <c r="F10">
-        <v>1.018507220951379</v>
+        <v>1.051704164838457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047983198917656</v>
+        <v>1.037657445578065</v>
       </c>
       <c r="J10">
-        <v>1.00425481272773</v>
+        <v>1.034676589382749</v>
       </c>
       <c r="K10">
-        <v>1.040950890586991</v>
+        <v>1.048498304084296</v>
       </c>
       <c r="L10">
-        <v>1.013729311329177</v>
+        <v>1.042473047082702</v>
       </c>
       <c r="M10">
-        <v>1.032550172920673</v>
+        <v>1.05509457689996</v>
       </c>
       <c r="N10">
-        <v>1.00568096975144</v>
+        <v>1.036145948818735</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9713896618022414</v>
+        <v>1.027595944613255</v>
       </c>
       <c r="D11">
-        <v>1.025052538175558</v>
+        <v>1.044697047515558</v>
       </c>
       <c r="E11">
-        <v>0.9965277109811251</v>
+        <v>1.038460398885297</v>
       </c>
       <c r="F11">
-        <v>1.015811954051181</v>
+        <v>1.051160042327465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04735082385589</v>
+        <v>1.037582732316279</v>
       </c>
       <c r="J11">
-        <v>1.002003076974227</v>
+        <v>1.03421796160643</v>
       </c>
       <c r="K11">
-        <v>1.039516975651126</v>
+        <v>1.04823220630134</v>
       </c>
       <c r="L11">
-        <v>1.011515408017772</v>
+        <v>1.042018405233466</v>
       </c>
       <c r="M11">
-        <v>1.030441716037068</v>
+        <v>1.054671840163739</v>
       </c>
       <c r="N11">
-        <v>1.003426036274889</v>
+        <v>1.035686669738369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9700273811093612</v>
+        <v>1.027337877686673</v>
       </c>
       <c r="D12">
-        <v>1.02430159233839</v>
+        <v>1.044552994671635</v>
       </c>
       <c r="E12">
-        <v>0.9954690747378272</v>
+        <v>1.038245907597831</v>
       </c>
       <c r="F12">
-        <v>1.014800334997315</v>
+        <v>1.050958018368035</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047111504944379</v>
+        <v>1.037554738053898</v>
       </c>
       <c r="J12">
-        <v>1.001156726126217</v>
+        <v>1.034047637894429</v>
       </c>
       <c r="K12">
-        <v>1.038977566200489</v>
+        <v>1.048133229928086</v>
       </c>
       <c r="L12">
-        <v>1.010683598002001</v>
+        <v>1.041849567719595</v>
       </c>
       <c r="M12">
-        <v>1.02964937291146</v>
+        <v>1.054514783029576</v>
       </c>
       <c r="N12">
-        <v>1.002578483511598</v>
+        <v>1.035516104147161</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9703203444729547</v>
+        <v>1.027393227903908</v>
       </c>
       <c r="D13">
-        <v>1.024463026393647</v>
+        <v>1.044583894665229</v>
       </c>
       <c r="E13">
-        <v>0.995696661083152</v>
+        <v>1.038291909658278</v>
       </c>
       <c r="F13">
-        <v>1.0150178132623</v>
+        <v>1.05100134921459</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047163042077958</v>
+        <v>1.03756075387869</v>
       </c>
       <c r="J13">
-        <v>1.001338730517439</v>
+        <v>1.034084171492456</v>
       </c>
       <c r="K13">
-        <v>1.039093582861844</v>
+        <v>1.048154466821638</v>
       </c>
       <c r="L13">
-        <v>1.010862460516438</v>
+        <v>1.04188578226366</v>
       </c>
       <c r="M13">
-        <v>1.029819755051164</v>
+        <v>1.054548473831259</v>
       </c>
       <c r="N13">
-        <v>1.002760746369932</v>
+        <v>1.035552689627088</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9712773916817369</v>
+        <v>1.027574610009716</v>
       </c>
       <c r="D14">
-        <v>1.024990623692496</v>
+        <v>1.044685140141557</v>
       </c>
       <c r="E14">
-        <v>0.9964404306608123</v>
+        <v>1.03844266579263</v>
       </c>
       <c r="F14">
-        <v>1.015728550055292</v>
+        <v>1.051143341172692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047331132734533</v>
+        <v>1.03758042324372</v>
       </c>
       <c r="J14">
-        <v>1.00193332357621</v>
+        <v>1.034203881957724</v>
       </c>
       <c r="K14">
-        <v>1.039472527929643</v>
+        <v>1.048224027646659</v>
       </c>
       <c r="L14">
-        <v>1.011446846350222</v>
+        <v>1.042004448317766</v>
       </c>
       <c r="M14">
-        <v>1.03037641023335</v>
+        <v>1.054658858456049</v>
       </c>
       <c r="N14">
-        <v>1.003356183819047</v>
+        <v>1.035672570094947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9718648823249882</v>
+        <v>1.027686383117942</v>
       </c>
       <c r="D15">
-        <v>1.025314663907752</v>
+        <v>1.044747520294275</v>
       </c>
       <c r="E15">
-        <v>0.9968972225536328</v>
+        <v>1.038535572243555</v>
       </c>
       <c r="F15">
-        <v>1.016165054559664</v>
+        <v>1.051230838727991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047434108482674</v>
+        <v>1.037592510082949</v>
       </c>
       <c r="J15">
-        <v>1.002298336593984</v>
+        <v>1.034277643662487</v>
       </c>
       <c r="K15">
-        <v>1.039705100934559</v>
+        <v>1.048266868408278</v>
       </c>
       <c r="L15">
-        <v>1.011805636390565</v>
+        <v>1.042077567281871</v>
       </c>
       <c r="M15">
-        <v>1.030718156104084</v>
+        <v>1.054726865613757</v>
       </c>
       <c r="N15">
-        <v>1.003721715197174</v>
+        <v>1.035746436549791</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.975251814290245</v>
+        <v>1.028337219497372</v>
       </c>
       <c r="D16">
-        <v>1.027185234137103</v>
+        <v>1.04511059036742</v>
       </c>
       <c r="E16">
-        <v>0.9995339685405975</v>
+        <v>1.039076641929666</v>
       </c>
       <c r="F16">
-        <v>1.01868465602352</v>
+        <v>1.051740288624402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048024553833165</v>
+        <v>1.037662370019571</v>
       </c>
       <c r="J16">
-        <v>1.004402886109775</v>
+        <v>1.03470703131784</v>
       </c>
       <c r="K16">
-        <v>1.041045116946567</v>
+        <v>1.048515945003722</v>
       </c>
       <c r="L16">
-        <v>1.013874939926708</v>
+        <v>1.042503225263671</v>
       </c>
       <c r="M16">
-        <v>1.032688841879302</v>
+        <v>1.055122627723393</v>
       </c>
       <c r="N16">
-        <v>1.005829253414672</v>
+        <v>1.036176433984867</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.977348481000879</v>
+        <v>1.028745708254569</v>
       </c>
       <c r="D17">
-        <v>1.028345211404302</v>
+        <v>1.045338324932936</v>
       </c>
       <c r="E17">
-        <v>1.001169046822428</v>
+        <v>1.039416316255242</v>
       </c>
       <c r="F17">
-        <v>1.020247016134805</v>
+        <v>1.052060007105224</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048387173106479</v>
+        <v>1.037705758625855</v>
       </c>
       <c r="J17">
-        <v>1.005705841666385</v>
+        <v>1.034976429495499</v>
       </c>
       <c r="K17">
-        <v>1.041873852309867</v>
+        <v>1.048671940807975</v>
       </c>
       <c r="L17">
-        <v>1.015156609415213</v>
+        <v>1.0427702937197</v>
       </c>
       <c r="M17">
-        <v>1.033909116791822</v>
+        <v>1.055370817092995</v>
       </c>
       <c r="N17">
-        <v>1.007134059317624</v>
+        <v>1.036446214738838</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9785616854659902</v>
+        <v>1.028984057887478</v>
       </c>
       <c r="D18">
-        <v>1.029017082210985</v>
+        <v>1.04547115458684</v>
       </c>
       <c r="E18">
-        <v>1.002116138331823</v>
+        <v>1.039614541495589</v>
       </c>
       <c r="F18">
-        <v>1.021151943955142</v>
+        <v>1.052246548492914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048595928898501</v>
+        <v>1.037730910331474</v>
       </c>
       <c r="J18">
-        <v>1.006459809232399</v>
+        <v>1.035133584375908</v>
       </c>
       <c r="K18">
-        <v>1.042353059916829</v>
+        <v>1.048762842412851</v>
       </c>
       <c r="L18">
-        <v>1.015898444173338</v>
+        <v>1.042926093168357</v>
       </c>
       <c r="M18">
-        <v>1.03461528948105</v>
+        <v>1.055515559095379</v>
       </c>
       <c r="N18">
-        <v>1.007889097604063</v>
+        <v>1.036603592797203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789737310429816</v>
+        <v>1.029065343369298</v>
       </c>
       <c r="D19">
-        <v>1.029245380532972</v>
+        <v>1.0455164453227</v>
       </c>
       <c r="E19">
-        <v>1.002437965699109</v>
+        <v>1.039682147928958</v>
       </c>
       <c r="F19">
-        <v>1.021459435111593</v>
+        <v>1.052310163568307</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048666645765971</v>
+        <v>1.037739459911053</v>
       </c>
       <c r="J19">
-        <v>1.006715885963273</v>
+        <v>1.035187173413176</v>
       </c>
       <c r="K19">
-        <v>1.042515755785695</v>
+        <v>1.048793822528045</v>
       </c>
       <c r="L19">
-        <v>1.016150430694364</v>
+        <v>1.042979220617157</v>
       </c>
       <c r="M19">
-        <v>1.034855139535269</v>
+        <v>1.055564908496177</v>
       </c>
       <c r="N19">
-        <v>1.008145537993267</v>
+        <v>1.036657257937051</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9771245430881643</v>
+        <v>1.028701872477086</v>
       </c>
       <c r="D20">
-        <v>1.028221247650452</v>
+        <v>1.045313891576993</v>
       </c>
       <c r="E20">
-        <v>1.000994307376307</v>
+        <v>1.039379862171193</v>
       </c>
       <c r="F20">
-        <v>1.020080052119936</v>
+        <v>1.052025698637133</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048348553212457</v>
+        <v>1.03770111958423</v>
       </c>
       <c r="J20">
-        <v>1.005566673616757</v>
+        <v>1.034947523600748</v>
       </c>
       <c r="K20">
-        <v>1.041785370951201</v>
+        <v>1.048655213038903</v>
       </c>
       <c r="L20">
-        <v>1.015019695590951</v>
+        <v>1.042741637422878</v>
       </c>
       <c r="M20">
-        <v>1.033778774252037</v>
+        <v>1.055344191056952</v>
       </c>
       <c r="N20">
-        <v>1.006994693633402</v>
+        <v>1.036417267794401</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9709960205953363</v>
+        <v>1.027521193831948</v>
       </c>
       <c r="D21">
-        <v>1.024835474576991</v>
+        <v>1.044655325978814</v>
       </c>
       <c r="E21">
-        <v>0.9962217162039971</v>
+        <v>1.038398267570645</v>
       </c>
       <c r="F21">
-        <v>1.015519549204031</v>
+        <v>1.051101525655824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047281757468807</v>
+        <v>1.037574637793226</v>
       </c>
       <c r="J21">
-        <v>1.00175850992318</v>
+        <v>1.034168629346554</v>
       </c>
       <c r="K21">
-        <v>1.039361127600318</v>
+        <v>1.048203547456366</v>
       </c>
       <c r="L21">
-        <v>1.011275024632166</v>
+        <v>1.041969503101823</v>
       </c>
       <c r="M21">
-        <v>1.030212745716233</v>
+        <v>1.054626353860662</v>
       </c>
       <c r="N21">
-        <v>1.003181121910578</v>
+        <v>1.035637267421025</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9670484478072542</v>
+        <v>1.026779622783672</v>
       </c>
       <c r="D22">
-        <v>1.022661987688353</v>
+        <v>1.044241235212614</v>
       </c>
       <c r="E22">
-        <v>0.993157321514487</v>
+        <v>1.037781999509596</v>
       </c>
       <c r="F22">
-        <v>1.012591289415822</v>
+        <v>1.050520967675736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046585341093533</v>
+        <v>1.037493711352188</v>
       </c>
       <c r="J22">
-        <v>0.9993062793952657</v>
+        <v>1.033679087673691</v>
       </c>
       <c r="K22">
-        <v>1.037797488635707</v>
+        <v>1.047918782250151</v>
       </c>
       <c r="L22">
-        <v>1.008865562974481</v>
+        <v>1.041484244459513</v>
       </c>
       <c r="M22">
-        <v>1.027917370189056</v>
+        <v>1.054174825682755</v>
       </c>
       <c r="N22">
-        <v>1.000725408934039</v>
+        <v>1.035147030542837</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9691504032173675</v>
+        <v>1.027172670674119</v>
       </c>
       <c r="D23">
-        <v>1.023818541586497</v>
+        <v>1.044460754289078</v>
       </c>
       <c r="E23">
-        <v>0.994788054342594</v>
+        <v>1.038108609227801</v>
       </c>
       <c r="F23">
-        <v>1.014149563879505</v>
+        <v>1.050828683940067</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046957002687688</v>
+        <v>1.037536744705403</v>
       </c>
       <c r="J23">
-        <v>1.000611923279874</v>
+        <v>1.033938585688026</v>
       </c>
       <c r="K23">
-        <v>1.038630229106039</v>
+        <v>1.04806981567664</v>
       </c>
       <c r="L23">
-        <v>1.010148248984246</v>
+        <v>1.041741468769676</v>
       </c>
       <c r="M23">
-        <v>1.029139387603919</v>
+        <v>1.054414207417807</v>
       </c>
       <c r="N23">
-        <v>1.002032906982723</v>
+        <v>1.035406897074116</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9772257610404546</v>
+        <v>1.02872167971518</v>
       </c>
       <c r="D24">
-        <v>1.028277276112335</v>
+        <v>1.045324931971587</v>
       </c>
       <c r="E24">
-        <v>1.001073285032611</v>
+        <v>1.039396333896971</v>
       </c>
       <c r="F24">
-        <v>1.02015551562162</v>
+        <v>1.052041200987262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048366012381498</v>
+        <v>1.037703216249949</v>
       </c>
       <c r="J24">
-        <v>1.005629576247318</v>
+        <v>1.034960584870173</v>
       </c>
       <c r="K24">
-        <v>1.041825364766872</v>
+        <v>1.048662771870081</v>
       </c>
       <c r="L24">
-        <v>1.015081578762785</v>
+        <v>1.042754585899106</v>
       </c>
       <c r="M24">
-        <v>1.03383768768943</v>
+        <v>1.055356222286658</v>
       </c>
       <c r="N24">
-        <v>1.007057685592913</v>
+        <v>1.036430347612327</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862172106115017</v>
+        <v>1.030522553703771</v>
       </c>
       <c r="D25">
-        <v>1.033266998504323</v>
+        <v>1.046327596143136</v>
       </c>
       <c r="E25">
-        <v>1.008108896617382</v>
+        <v>1.040894544220168</v>
       </c>
       <c r="F25">
-        <v>1.02687669539319</v>
+        <v>1.053450411687119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04989343193355</v>
+        <v>1.037890270099264</v>
       </c>
       <c r="J25">
-        <v>1.01121749322672</v>
+        <v>1.036147319829794</v>
       </c>
       <c r="K25">
-        <v>1.045369939215063</v>
+        <v>1.049347403626826</v>
       </c>
       <c r="L25">
-        <v>1.020582623200273</v>
+        <v>1.043931148404863</v>
       </c>
       <c r="M25">
-        <v>1.039071635295223</v>
+        <v>1.05644848468727</v>
       </c>
       <c r="N25">
-        <v>1.01265353805537</v>
+        <v>1.037618767871711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031961604145692</v>
+        <v>0.9931135469906439</v>
       </c>
       <c r="D2">
-        <v>1.0471271194131</v>
+        <v>1.037108424745602</v>
       </c>
       <c r="E2">
-        <v>1.042092597640028</v>
+        <v>1.013531523793618</v>
       </c>
       <c r="F2">
-        <v>1.05457607304981</v>
+        <v>1.032053892996987</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038034499349782</v>
+        <v>1.051029017544554</v>
       </c>
       <c r="J2">
-        <v>1.037094446692479</v>
+        <v>1.015502199894652</v>
       </c>
       <c r="K2">
-        <v>1.049890626704791</v>
+        <v>1.048073899084648</v>
       </c>
       <c r="L2">
-        <v>1.044870261453213</v>
+        <v>1.024805507673625</v>
       </c>
       <c r="M2">
-        <v>1.057318903419241</v>
+        <v>1.04308402244748</v>
       </c>
       <c r="N2">
-        <v>1.038567239763178</v>
+        <v>1.016944329498221</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033008031795953</v>
+        <v>0.9979750665001234</v>
       </c>
       <c r="D3">
-        <v>1.047707496914087</v>
+        <v>1.039822072079876</v>
       </c>
       <c r="E3">
-        <v>1.042964260252193</v>
+        <v>1.017367851642553</v>
       </c>
       <c r="F3">
-        <v>1.055394349435427</v>
+        <v>1.035714055242533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038136331595909</v>
+        <v>1.051807457467766</v>
       </c>
       <c r="J3">
-        <v>1.037782476176681</v>
+        <v>1.018521085873135</v>
       </c>
       <c r="K3">
-        <v>1.050283386389069</v>
+        <v>1.049969567193515</v>
       </c>
       <c r="L3">
-        <v>1.04555252553825</v>
+        <v>1.027783227666926</v>
       </c>
       <c r="M3">
-        <v>1.057950437564892</v>
+        <v>1.045909484896967</v>
       </c>
       <c r="N3">
-        <v>1.039256246328165</v>
+        <v>1.019967502641076</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033685856195599</v>
+        <v>1.001057479263756</v>
       </c>
       <c r="D4">
-        <v>1.048082961181144</v>
+        <v>1.041544442655279</v>
       </c>
       <c r="E4">
-        <v>1.043529096620848</v>
+        <v>1.019806101128435</v>
       </c>
       <c r="F4">
-        <v>1.055924257884599</v>
+        <v>1.038038936179102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03820088217984</v>
+        <v>1.052290391849277</v>
       </c>
       <c r="J4">
-        <v>1.038227826991</v>
+        <v>1.02043417324105</v>
       </c>
       <c r="K4">
-        <v>1.05053674850247</v>
+        <v>1.051166042636517</v>
       </c>
       <c r="L4">
-        <v>1.045994168939714</v>
+        <v>1.029671219314597</v>
       </c>
       <c r="M4">
-        <v>1.058358858853843</v>
+        <v>1.047698958011806</v>
       </c>
       <c r="N4">
-        <v>1.039702229591723</v>
+        <v>1.021883306812487</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033970984441892</v>
+        <v>1.002338747946438</v>
       </c>
       <c r="D5">
-        <v>1.048240785732197</v>
+        <v>1.042260697015585</v>
       </c>
       <c r="E5">
-        <v>1.043766747102579</v>
+        <v>1.020820946208546</v>
       </c>
       <c r="F5">
-        <v>1.056147132493705</v>
+        <v>1.039006225548228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038227697396183</v>
+        <v>1.052488523443881</v>
       </c>
       <c r="J5">
-        <v>1.038415087576774</v>
+        <v>1.021229103421979</v>
       </c>
       <c r="K5">
-        <v>1.050643074007743</v>
+        <v>1.051661984065357</v>
       </c>
       <c r="L5">
-        <v>1.046179876258169</v>
+        <v>1.030455943236094</v>
       </c>
       <c r="M5">
-        <v>1.058530504347289</v>
+        <v>1.048442228097716</v>
       </c>
       <c r="N5">
-        <v>1.039889756109008</v>
+        <v>1.022679365885454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034018868735092</v>
+        <v>1.002553040067277</v>
       </c>
       <c r="D6">
-        <v>1.048267283907772</v>
+        <v>1.042380505733564</v>
       </c>
       <c r="E6">
-        <v>1.043806660962574</v>
+        <v>1.020990755614137</v>
       </c>
       <c r="F6">
-        <v>1.056184560003542</v>
+        <v>1.039168055014944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038232180896816</v>
+        <v>1.052521505813387</v>
       </c>
       <c r="J6">
-        <v>1.038446531490071</v>
+        <v>1.021362037601128</v>
       </c>
       <c r="K6">
-        <v>1.0506609154707</v>
+        <v>1.051744845524504</v>
       </c>
       <c r="L6">
-        <v>1.046211059677071</v>
+        <v>1.030587183210821</v>
       </c>
       <c r="M6">
-        <v>1.058559321128579</v>
+        <v>1.048566504598767</v>
       </c>
       <c r="N6">
-        <v>1.039921244676269</v>
+        <v>1.022812488846385</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033689665422372</v>
+        <v>1.001074656172392</v>
       </c>
       <c r="D7">
-        <v>1.048085070123803</v>
+        <v>1.041554043790184</v>
       </c>
       <c r="E7">
-        <v>1.04353227136031</v>
+        <v>1.019819701126188</v>
       </c>
       <c r="F7">
-        <v>1.055927235550791</v>
+        <v>1.038051900381704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038201241751532</v>
+        <v>1.052293058422608</v>
       </c>
       <c r="J7">
-        <v>1.038230329039108</v>
+        <v>1.020444831386697</v>
       </c>
       <c r="K7">
-        <v>1.050538169969111</v>
+        <v>1.051172696950784</v>
       </c>
       <c r="L7">
-        <v>1.045996650212331</v>
+        <v>1.029681739764021</v>
       </c>
       <c r="M7">
-        <v>1.058361152606361</v>
+        <v>1.047708924744539</v>
       </c>
       <c r="N7">
-        <v>1.039704735193027</v>
+        <v>1.021893980093924</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032315100780594</v>
+        <v>0.9947699892345109</v>
       </c>
       <c r="D8">
-        <v>1.047323275959838</v>
+        <v>1.038032582512128</v>
       </c>
       <c r="E8">
-        <v>1.042387011165412</v>
+        <v>1.014837387968196</v>
       </c>
       <c r="F8">
-        <v>1.054852523623997</v>
+        <v>1.033300064665781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038069191451298</v>
+        <v>1.051296443434701</v>
       </c>
       <c r="J8">
-        <v>1.03732693802819</v>
+        <v>1.016530998448047</v>
       </c>
       <c r="K8">
-        <v>1.050023522348925</v>
+        <v>1.048720890832903</v>
       </c>
       <c r="L8">
-        <v>1.045100799411556</v>
+        <v>1.025820059259548</v>
       </c>
       <c r="M8">
-        <v>1.05753237884186</v>
+        <v>1.044047094358362</v>
       </c>
       <c r="N8">
-        <v>1.038800061263253</v>
+        <v>1.017974589063579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029898445132247</v>
+        <v>0.9831477477296635</v>
       </c>
       <c r="D9">
-        <v>1.045980371747345</v>
+        <v>1.031560982146603</v>
       </c>
       <c r="E9">
-        <v>1.040375191624094</v>
+        <v>1.005702713935433</v>
       </c>
       <c r="F9">
-        <v>1.05296209877839</v>
+        <v>1.024578428198929</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037826254735398</v>
+        <v>1.049377498723739</v>
       </c>
       <c r="J9">
-        <v>1.035736227149875</v>
+        <v>1.009309966784359</v>
       </c>
       <c r="K9">
-        <v>1.049110732337714</v>
+        <v>1.044161947418923</v>
       </c>
       <c r="L9">
-        <v>1.043523562710194</v>
+        <v>1.018703941229574</v>
       </c>
       <c r="M9">
-        <v>1.056070319028603</v>
+        <v>1.037284937835584</v>
       </c>
       <c r="N9">
-        <v>1.037207091393034</v>
+        <v>1.010743302706664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028291067852707</v>
+        <v>0.9750135309467119</v>
       </c>
       <c r="D10">
-        <v>1.045084853661239</v>
+        <v>1.027053499288266</v>
       </c>
       <c r="E10">
-        <v>1.03903826887816</v>
+        <v>0.9993482798961456</v>
       </c>
       <c r="F10">
-        <v>1.051704164838457</v>
+        <v>1.018507220951378</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037657445578065</v>
+        <v>1.047983198917656</v>
       </c>
       <c r="J10">
-        <v>1.034676589382749</v>
+        <v>1.00425481272773</v>
       </c>
       <c r="K10">
-        <v>1.048498304084296</v>
+        <v>1.040950890586991</v>
       </c>
       <c r="L10">
-        <v>1.042473047082702</v>
+        <v>1.013729311329176</v>
       </c>
       <c r="M10">
-        <v>1.05509457689996</v>
+        <v>1.032550172920673</v>
       </c>
       <c r="N10">
-        <v>1.036145948818735</v>
+        <v>1.00568096975144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027595944613255</v>
+        <v>0.9713896618022413</v>
       </c>
       <c r="D11">
-        <v>1.044697047515558</v>
+        <v>1.025052538175558</v>
       </c>
       <c r="E11">
-        <v>1.038460398885297</v>
+        <v>0.9965277109811248</v>
       </c>
       <c r="F11">
-        <v>1.051160042327465</v>
+        <v>1.015811954051181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037582732316279</v>
+        <v>1.04735082385589</v>
       </c>
       <c r="J11">
-        <v>1.03421796160643</v>
+        <v>1.002003076974227</v>
       </c>
       <c r="K11">
-        <v>1.04823220630134</v>
+        <v>1.039516975651126</v>
       </c>
       <c r="L11">
-        <v>1.042018405233466</v>
+        <v>1.011515408017772</v>
       </c>
       <c r="M11">
-        <v>1.054671840163739</v>
+        <v>1.030441716037068</v>
       </c>
       <c r="N11">
-        <v>1.035686669738369</v>
+        <v>1.003426036274889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027337877686673</v>
+        <v>0.9700273811093613</v>
       </c>
       <c r="D12">
-        <v>1.044552994671635</v>
+        <v>1.024301592338391</v>
       </c>
       <c r="E12">
-        <v>1.038245907597831</v>
+        <v>0.995469074737827</v>
       </c>
       <c r="F12">
-        <v>1.050958018368035</v>
+        <v>1.014800334997315</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037554738053898</v>
+        <v>1.047111504944379</v>
       </c>
       <c r="J12">
-        <v>1.034047637894429</v>
+        <v>1.001156726126216</v>
       </c>
       <c r="K12">
-        <v>1.048133229928086</v>
+        <v>1.038977566200489</v>
       </c>
       <c r="L12">
-        <v>1.041849567719595</v>
+        <v>1.010683598002001</v>
       </c>
       <c r="M12">
-        <v>1.054514783029576</v>
+        <v>1.02964937291146</v>
       </c>
       <c r="N12">
-        <v>1.035516104147161</v>
+        <v>1.002578483511597</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027393227903908</v>
+        <v>0.9703203444729545</v>
       </c>
       <c r="D13">
-        <v>1.044583894665229</v>
+        <v>1.024463026393647</v>
       </c>
       <c r="E13">
-        <v>1.038291909658278</v>
+        <v>0.9956966610831519</v>
       </c>
       <c r="F13">
-        <v>1.05100134921459</v>
+        <v>1.0150178132623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03756075387869</v>
+        <v>1.047163042077958</v>
       </c>
       <c r="J13">
-        <v>1.034084171492456</v>
+        <v>1.001338730517439</v>
       </c>
       <c r="K13">
-        <v>1.048154466821638</v>
+        <v>1.039093582861844</v>
       </c>
       <c r="L13">
-        <v>1.04188578226366</v>
+        <v>1.010862460516438</v>
       </c>
       <c r="M13">
-        <v>1.054548473831259</v>
+        <v>1.029819755051164</v>
       </c>
       <c r="N13">
-        <v>1.035552689627088</v>
+        <v>1.002760746369931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027574610009716</v>
+        <v>0.9712773916817371</v>
       </c>
       <c r="D14">
-        <v>1.044685140141557</v>
+        <v>1.024990623692496</v>
       </c>
       <c r="E14">
-        <v>1.03844266579263</v>
+        <v>0.9964404306608123</v>
       </c>
       <c r="F14">
-        <v>1.051143341172692</v>
+        <v>1.015728550055292</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03758042324372</v>
+        <v>1.047331132734533</v>
       </c>
       <c r="J14">
-        <v>1.034203881957724</v>
+        <v>1.001933323576211</v>
       </c>
       <c r="K14">
-        <v>1.048224027646659</v>
+        <v>1.039472527929643</v>
       </c>
       <c r="L14">
-        <v>1.042004448317766</v>
+        <v>1.011446846350222</v>
       </c>
       <c r="M14">
-        <v>1.054658858456049</v>
+        <v>1.03037641023335</v>
       </c>
       <c r="N14">
-        <v>1.035672570094947</v>
+        <v>1.003356183819047</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027686383117942</v>
+        <v>0.9718648823249884</v>
       </c>
       <c r="D15">
-        <v>1.044747520294275</v>
+        <v>1.025314663907753</v>
       </c>
       <c r="E15">
-        <v>1.038535572243555</v>
+        <v>0.9968972225536332</v>
       </c>
       <c r="F15">
-        <v>1.051230838727991</v>
+        <v>1.016165054559664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037592510082949</v>
+        <v>1.047434108482674</v>
       </c>
       <c r="J15">
-        <v>1.034277643662487</v>
+        <v>1.002298336593984</v>
       </c>
       <c r="K15">
-        <v>1.048266868408278</v>
+        <v>1.039705100934559</v>
       </c>
       <c r="L15">
-        <v>1.042077567281871</v>
+        <v>1.011805636390566</v>
       </c>
       <c r="M15">
-        <v>1.054726865613757</v>
+        <v>1.030718156104084</v>
       </c>
       <c r="N15">
-        <v>1.035746436549791</v>
+        <v>1.003721715197174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028337219497372</v>
+        <v>0.9752518142902451</v>
       </c>
       <c r="D16">
-        <v>1.04511059036742</v>
+        <v>1.027185234137103</v>
       </c>
       <c r="E16">
-        <v>1.039076641929666</v>
+        <v>0.9995339685405974</v>
       </c>
       <c r="F16">
-        <v>1.051740288624402</v>
+        <v>1.01868465602352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037662370019571</v>
+        <v>1.048024553833166</v>
       </c>
       <c r="J16">
-        <v>1.03470703131784</v>
+        <v>1.004402886109775</v>
       </c>
       <c r="K16">
-        <v>1.048515945003722</v>
+        <v>1.041045116946567</v>
       </c>
       <c r="L16">
-        <v>1.042503225263671</v>
+        <v>1.013874939926708</v>
       </c>
       <c r="M16">
-        <v>1.055122627723393</v>
+        <v>1.032688841879302</v>
       </c>
       <c r="N16">
-        <v>1.036176433984867</v>
+        <v>1.005829253414672</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028745708254569</v>
+        <v>0.9773484810008791</v>
       </c>
       <c r="D17">
-        <v>1.045338324932936</v>
+        <v>1.028345211404302</v>
       </c>
       <c r="E17">
-        <v>1.039416316255242</v>
+        <v>1.001169046822427</v>
       </c>
       <c r="F17">
-        <v>1.052060007105224</v>
+        <v>1.020247016134805</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037705758625855</v>
+        <v>1.048387173106479</v>
       </c>
       <c r="J17">
-        <v>1.034976429495499</v>
+        <v>1.005705841666385</v>
       </c>
       <c r="K17">
-        <v>1.048671940807975</v>
+        <v>1.041873852309867</v>
       </c>
       <c r="L17">
-        <v>1.0427702937197</v>
+        <v>1.015156609415212</v>
       </c>
       <c r="M17">
-        <v>1.055370817092995</v>
+        <v>1.033909116791822</v>
       </c>
       <c r="N17">
-        <v>1.036446214738838</v>
+        <v>1.007134059317624</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028984057887478</v>
+        <v>0.9785616854659909</v>
       </c>
       <c r="D18">
-        <v>1.04547115458684</v>
+        <v>1.029017082210985</v>
       </c>
       <c r="E18">
-        <v>1.039614541495589</v>
+        <v>1.002116138331824</v>
       </c>
       <c r="F18">
-        <v>1.052246548492914</v>
+        <v>1.021151943955143</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037730910331474</v>
+        <v>1.048595928898501</v>
       </c>
       <c r="J18">
-        <v>1.035133584375908</v>
+        <v>1.0064598092324</v>
       </c>
       <c r="K18">
-        <v>1.048762842412851</v>
+        <v>1.04235305991683</v>
       </c>
       <c r="L18">
-        <v>1.042926093168357</v>
+        <v>1.015898444173339</v>
       </c>
       <c r="M18">
-        <v>1.055515559095379</v>
+        <v>1.03461528948105</v>
       </c>
       <c r="N18">
-        <v>1.036603592797203</v>
+        <v>1.007889097604063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029065343369298</v>
+        <v>0.9789737310429812</v>
       </c>
       <c r="D19">
-        <v>1.0455164453227</v>
+        <v>1.029245380532971</v>
       </c>
       <c r="E19">
-        <v>1.039682147928958</v>
+        <v>1.002437965699109</v>
       </c>
       <c r="F19">
-        <v>1.052310163568307</v>
+        <v>1.021459435111593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037739459911053</v>
+        <v>1.048666645765971</v>
       </c>
       <c r="J19">
-        <v>1.035187173413176</v>
+        <v>1.006715885963273</v>
       </c>
       <c r="K19">
-        <v>1.048793822528045</v>
+        <v>1.042515755785695</v>
       </c>
       <c r="L19">
-        <v>1.042979220617157</v>
+        <v>1.016150430694364</v>
       </c>
       <c r="M19">
-        <v>1.055564908496177</v>
+        <v>1.034855139535269</v>
       </c>
       <c r="N19">
-        <v>1.036657257937051</v>
+        <v>1.008145537993267</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028701872477086</v>
+        <v>0.9771245430881647</v>
       </c>
       <c r="D20">
-        <v>1.045313891576993</v>
+        <v>1.028221247650452</v>
       </c>
       <c r="E20">
-        <v>1.039379862171193</v>
+        <v>1.000994307376307</v>
       </c>
       <c r="F20">
-        <v>1.052025698637133</v>
+        <v>1.020080052119936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03770111958423</v>
+        <v>1.048348553212458</v>
       </c>
       <c r="J20">
-        <v>1.034947523600748</v>
+        <v>1.005566673616757</v>
       </c>
       <c r="K20">
-        <v>1.048655213038903</v>
+        <v>1.041785370951202</v>
       </c>
       <c r="L20">
-        <v>1.042741637422878</v>
+        <v>1.015019695590951</v>
       </c>
       <c r="M20">
-        <v>1.055344191056952</v>
+        <v>1.033778774252038</v>
       </c>
       <c r="N20">
-        <v>1.036417267794401</v>
+        <v>1.006994693633403</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027521193831948</v>
+        <v>0.9709960205953365</v>
       </c>
       <c r="D21">
-        <v>1.044655325978814</v>
+        <v>1.024835474576991</v>
       </c>
       <c r="E21">
-        <v>1.038398267570645</v>
+        <v>0.9962217162039974</v>
       </c>
       <c r="F21">
-        <v>1.051101525655824</v>
+        <v>1.015519549204031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037574637793226</v>
+        <v>1.047281757468807</v>
       </c>
       <c r="J21">
-        <v>1.034168629346554</v>
+        <v>1.00175850992318</v>
       </c>
       <c r="K21">
-        <v>1.048203547456366</v>
+        <v>1.039361127600318</v>
       </c>
       <c r="L21">
-        <v>1.041969503101823</v>
+        <v>1.011275024632166</v>
       </c>
       <c r="M21">
-        <v>1.054626353860662</v>
+        <v>1.030212745716232</v>
       </c>
       <c r="N21">
-        <v>1.035637267421025</v>
+        <v>1.003181121910578</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026779622783672</v>
+        <v>0.9670484478072541</v>
       </c>
       <c r="D22">
-        <v>1.044241235212614</v>
+        <v>1.022661987688353</v>
       </c>
       <c r="E22">
-        <v>1.037781999509596</v>
+        <v>0.9931573215144867</v>
       </c>
       <c r="F22">
-        <v>1.050520967675736</v>
+        <v>1.012591289415822</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037493711352188</v>
+        <v>1.046585341093533</v>
       </c>
       <c r="J22">
-        <v>1.033679087673691</v>
+        <v>0.9993062793952655</v>
       </c>
       <c r="K22">
-        <v>1.047918782250151</v>
+        <v>1.037797488635707</v>
       </c>
       <c r="L22">
-        <v>1.041484244459513</v>
+        <v>1.008865562974481</v>
       </c>
       <c r="M22">
-        <v>1.054174825682755</v>
+        <v>1.027917370189056</v>
       </c>
       <c r="N22">
-        <v>1.035147030542837</v>
+        <v>1.000725408934039</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027172670674119</v>
+        <v>0.9691504032173675</v>
       </c>
       <c r="D23">
-        <v>1.044460754289078</v>
+        <v>1.023818541586497</v>
       </c>
       <c r="E23">
-        <v>1.038108609227801</v>
+        <v>0.9947880543425939</v>
       </c>
       <c r="F23">
-        <v>1.050828683940067</v>
+        <v>1.014149563879506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037536744705403</v>
+        <v>1.046957002687688</v>
       </c>
       <c r="J23">
-        <v>1.033938585688026</v>
+        <v>1.000611923279874</v>
       </c>
       <c r="K23">
-        <v>1.04806981567664</v>
+        <v>1.038630229106039</v>
       </c>
       <c r="L23">
-        <v>1.041741468769676</v>
+        <v>1.010148248984246</v>
       </c>
       <c r="M23">
-        <v>1.054414207417807</v>
+        <v>1.029139387603919</v>
       </c>
       <c r="N23">
-        <v>1.035406897074116</v>
+        <v>1.002032906982723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02872167971518</v>
+        <v>0.977225761040455</v>
       </c>
       <c r="D24">
-        <v>1.045324931971587</v>
+        <v>1.028277276112335</v>
       </c>
       <c r="E24">
-        <v>1.039396333896971</v>
+        <v>1.001073285032611</v>
       </c>
       <c r="F24">
-        <v>1.052041200987262</v>
+        <v>1.02015551562162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037703216249949</v>
+        <v>1.048366012381498</v>
       </c>
       <c r="J24">
-        <v>1.034960584870173</v>
+        <v>1.005629576247318</v>
       </c>
       <c r="K24">
-        <v>1.048662771870081</v>
+        <v>1.041825364766872</v>
       </c>
       <c r="L24">
-        <v>1.042754585899106</v>
+        <v>1.015081578762785</v>
       </c>
       <c r="M24">
-        <v>1.055356222286658</v>
+        <v>1.03383768768943</v>
       </c>
       <c r="N24">
-        <v>1.036430347612327</v>
+        <v>1.007057685592914</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030522553703771</v>
+        <v>0.9862172106115016</v>
       </c>
       <c r="D25">
-        <v>1.046327596143136</v>
+        <v>1.033266998504323</v>
       </c>
       <c r="E25">
-        <v>1.040894544220168</v>
+        <v>1.008108896617382</v>
       </c>
       <c r="F25">
-        <v>1.053450411687119</v>
+        <v>1.02687669539319</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037890270099264</v>
+        <v>1.04989343193355</v>
       </c>
       <c r="J25">
-        <v>1.036147319829794</v>
+        <v>1.01121749322672</v>
       </c>
       <c r="K25">
-        <v>1.049347403626826</v>
+        <v>1.045369939215063</v>
       </c>
       <c r="L25">
-        <v>1.043931148404863</v>
+        <v>1.020582623200273</v>
       </c>
       <c r="M25">
-        <v>1.05644848468727</v>
+        <v>1.039071635295223</v>
       </c>
       <c r="N25">
-        <v>1.037618767871711</v>
+        <v>1.01265353805537</v>
       </c>
     </row>
   </sheetData>
